--- a/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list.xlsx
+++ b/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>中国人民银行湖北重点库金银锭类装箱清单</t>
   </si>
@@ -22,7 +22,7 @@
     <t>箱号:1</t>
   </si>
   <si>
-    <t>2017年08月09日</t>
+    <t>2017年08月31日</t>
   </si>
   <si>
     <t>序号</t>
@@ -49,16 +49,40 @@
     <t>评价等级</t>
   </si>
   <si>
-    <t>1-02-217-1</t>
-  </si>
-  <si>
-    <t>1-02-217-2</t>
-  </si>
-  <si>
-    <t>1-02-217-8</t>
-  </si>
-  <si>
-    <t>1-02-217-9</t>
+    <t>家分店</t>
+  </si>
+  <si>
+    <t>2-02-217-5</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>2-02-217-6</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>是人都挺好</t>
+  </si>
+  <si>
+    <t>2-02-217-7</t>
+  </si>
+  <si>
+    <t>热轧板</t>
+  </si>
+  <si>
+    <t>2-02-217-8</t>
   </si>
   <si>
     <t>小计</t>
@@ -1101,57 +1125,89 @@
       <c r="A4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s"/>
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="17" t="n"/>
-      <c r="E4" s="18" t="n"/>
+      <c r="E4" s="18" t="n">
+        <v>99</v>
+      </c>
       <c r="F4" s="18" t="n"/>
-      <c r="G4" s="19" t="s"/>
-      <c r="H4" s="19" t="s"/>
+      <c r="G4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="5" spans="1:8">
       <c r="A5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s"/>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="17" t="n"/>
-      <c r="E5" s="18" t="n"/>
+      <c r="E5" s="18" t="n">
+        <v>88</v>
+      </c>
       <c r="F5" s="18" t="n"/>
-      <c r="G5" s="19" t="s"/>
-      <c r="H5" s="19" t="s"/>
+      <c r="G5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="6" spans="1:8">
       <c r="A6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s"/>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="n"/>
+      <c r="E6" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="F6" s="18" t="n"/>
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="n"/>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="18" t="n"/>
-      <c r="G6" s="19" t="s"/>
-      <c r="H6" s="19" t="s"/>
+      <c r="H6" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="7" spans="1:8">
       <c r="A7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s"/>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="F7" s="18" t="n"/>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="n"/>
-      <c r="E7" s="18" t="n"/>
-      <c r="F7" s="18" t="n"/>
-      <c r="G7" s="19" t="s"/>
-      <c r="H7" s="19" t="s"/>
     </row>
     <row customHeight="1" ht="21.75" r="8" spans="1:8">
       <c r="A8" s="9" t="n">
@@ -1467,7 +1523,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B34" s="23" t="n"/>
       <c r="C34" s="22" t="n"/>
@@ -1485,7 +1541,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="35" spans="1:8">
       <c r="A35" s="22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B35" s="23" t="n"/>
       <c r="C35" s="22" t="n"/>
@@ -1503,16 +1559,16 @@
     </row>
     <row customHeight="1" ht="32.25" r="36" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B36" s="15" t="n"/>
       <c r="C36" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D36" s="15" t="n"/>
       <c r="E36" s="15" t="n"/>
       <c r="F36" s="15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G36" s="15" t="n"/>
     </row>

--- a/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list.xlsx
+++ b/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>中国人民银行湖北重点库金银锭类装箱清单</t>
   </si>
@@ -49,10 +49,10 @@
     <t>评价等级</t>
   </si>
   <si>
-    <t>家分店</t>
-  </si>
-  <si>
-    <t>2-02-217-5</t>
+    <t>SDR一年</t>
+  </si>
+  <si>
+    <t>1-02-217-9</t>
   </si>
   <si>
     <t>好</t>
@@ -61,10 +61,22 @@
     <t>A</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>2-02-217-6</t>
+    <t>服</t>
+  </si>
+  <si>
+    <t>1-02-217-10</t>
+  </si>
+  <si>
+    <t>人都是你要</t>
+  </si>
+  <si>
+    <t>1-02-217-11</t>
+  </si>
+  <si>
+    <t>的是页面</t>
+  </si>
+  <si>
+    <t>1-02-217-13</t>
   </si>
   <si>
     <t>中</t>
@@ -73,16 +85,28 @@
     <t>B</t>
   </si>
   <si>
-    <t>是人都挺好</t>
-  </si>
-  <si>
-    <t>2-02-217-7</t>
-  </si>
-  <si>
-    <t>热轧板</t>
-  </si>
-  <si>
-    <t>2-02-217-8</t>
+    <t>1-02-217-12</t>
+  </si>
+  <si>
+    <t>阿萨德</t>
+  </si>
+  <si>
+    <t>1-02-217-14</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1-02-217-15</t>
+  </si>
+  <si>
+    <t>1-02-217-16</t>
+  </si>
+  <si>
+    <t>1-02-217-17</t>
+  </si>
+  <si>
+    <t>1-02-217-18</t>
   </si>
   <si>
     <t>小计</t>
@@ -1131,9 +1155,11 @@
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="n"/>
+      <c r="D4" s="17" t="n">
+        <v>453</v>
+      </c>
       <c r="E4" s="18" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F4" s="18" t="n"/>
       <c r="G4" s="19" t="s">
@@ -1153,16 +1179,18 @@
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="n"/>
+      <c r="D5" s="17" t="n">
+        <v>56</v>
+      </c>
       <c r="E5" s="18" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F5" s="18" t="n"/>
       <c r="G5" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="21.75" r="6" spans="1:8">
@@ -1170,14 +1198,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="n"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>45</v>
+      </c>
       <c r="E6" s="18" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F6" s="18" t="n"/>
       <c r="G6" s="19" t="s">
@@ -1192,94 +1222,130 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="17" t="n"/>
       <c r="E7" s="18" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F7" s="18" t="n"/>
       <c r="G7" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="21.75" r="8" spans="1:8">
       <c r="A8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="n"/>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="20" t="n"/>
-      <c r="E8" s="21" t="n"/>
-      <c r="F8" s="21" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18" t="n"/>
+      <c r="G8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="9" spans="1:8">
       <c r="A9" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="20" t="n"/>
-      <c r="E9" s="21" t="n"/>
-      <c r="F9" s="21" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="18" t="n"/>
+      <c r="G9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="10" spans="1:8">
       <c r="A10" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="20" t="n"/>
-      <c r="E10" s="21" t="n"/>
-      <c r="F10" s="21" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
+      <c r="B10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="17" t="n"/>
+      <c r="E10" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row customHeight="1" ht="21.75" r="11" spans="1:8">
       <c r="A11" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="20" t="n"/>
-      <c r="E11" s="21" t="n"/>
-      <c r="F11" s="21" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
+      <c r="B11" s="16" t="s"/>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="17" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="19" t="s"/>
+      <c r="H11" s="19" t="s"/>
     </row>
     <row customHeight="1" ht="21.75" r="12" spans="1:8">
       <c r="A12" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="20" t="n"/>
-      <c r="E12" s="21" t="n"/>
-      <c r="F12" s="21" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
+      <c r="B12" s="16" t="s"/>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="19" t="s"/>
+      <c r="H12" s="19" t="s"/>
     </row>
     <row customHeight="1" ht="21.75" r="13" spans="1:8">
       <c r="A13" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="9" t="n"/>
-      <c r="D13" s="20" t="n"/>
-      <c r="E13" s="21" t="n"/>
-      <c r="F13" s="21" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
+      <c r="B13" s="16" t="s"/>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="18" t="n"/>
+      <c r="F13" s="18" t="n"/>
+      <c r="G13" s="19" t="s"/>
+      <c r="H13" s="19" t="s"/>
     </row>
     <row customHeight="1" ht="21.75" r="14" spans="1:8">
       <c r="A14" s="9" t="n">
@@ -1523,17 +1589,17 @@
     </row>
     <row customHeight="1" ht="21.75" r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B34" s="23" t="n"/>
       <c r="C34" s="22" t="n"/>
       <c r="D34" s="24">
-        <f>SUM(D4:D7)</f>
+        <f>SUM(D4:D13)</f>
         <v/>
       </c>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25">
-        <f>SUM(F4:F7)</f>
+        <f>SUM(F4:F13)</f>
         <v/>
       </c>
       <c r="G34" s="26" t="n"/>
@@ -1541,7 +1607,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="35" spans="1:8">
       <c r="A35" s="22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B35" s="23" t="n"/>
       <c r="C35" s="22" t="n"/>
@@ -1559,16 +1625,16 @@
     </row>
     <row customHeight="1" ht="32.25" r="36" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" s="15" t="n"/>
       <c r="C36" s="15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D36" s="15" t="n"/>
       <c r="E36" s="15" t="n"/>
       <c r="F36" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G36" s="15" t="n"/>
     </row>
